--- a/static/1/suzdal_56.xlsx
+++ b/static/1/suzdal_56.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,9 +425,10 @@
   <cols>
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="26" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -457,15 +458,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Cuidad</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Paletas</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Kilos</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Fecha Entrega</t>
         </is>
@@ -480,13 +486,18 @@
           <t>Garrett Winters</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Gerona</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>11</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>50</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>02/01/2025</t>
         </is>
@@ -501,13 +512,18 @@
           <t>Garrett Winters</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Saron</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>50</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>02/01/2025</t>
         </is>
@@ -522,13 +538,18 @@
           <t>Rhona Davidson</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Saron</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>11</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>50</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>02/01/2025</t>
         </is>
@@ -543,13 +564,18 @@
           <t>Tiger Nixon</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Santander</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>100</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>01/01/2025</t>
         </is>
@@ -564,13 +590,18 @@
           <t>Ashton Cox</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Torrelavega</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>13</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>60</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>02/01/2025</t>
         </is>
@@ -579,13 +610,14 @@
     <row r="9">
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="n">
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
         <v>56</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>310</v>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -601,7 +633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,9 +643,10 @@
   <cols>
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="26" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="17" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -643,15 +676,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Cuidad</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Paletas</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Kilos</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Fecha Entrega</t>
         </is>
@@ -666,13 +704,18 @@
           <t>Herrod Chandler</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>11</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>50</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>02/01/2025</t>
         </is>
@@ -687,13 +730,18 @@
           <t>Ashton Cox</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>14</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>70</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>03/01/2025</t>
         </is>
@@ -708,13 +756,18 @@
           <t>Ashton Cox</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>15</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>10</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>04/01/2025</t>
         </is>
@@ -723,13 +776,14 @@
     <row r="7">
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="n">
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
         <v>40</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>130</v>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -745,7 +799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -756,8 +810,9 @@
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="24" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -787,15 +842,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Cuidad</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Paletas</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Kilos</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Fecha Entrega</t>
         </is>
@@ -810,13 +870,18 @@
           <t>Ashton Cox</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>15</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>10</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>04/01/2025</t>
         </is>
@@ -831,13 +896,18 @@
           <t>Colleen Hurst</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Badajoz</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>50</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>02/01/2025</t>
         </is>
@@ -846,13 +916,14 @@
     <row r="6">
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="n">
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
         <v>26</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>60</v>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">
